--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_12_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>220675.6719404556</v>
+        <v>217681.7754097926</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11474165.73292066</v>
+        <v>11490717.74069475</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12307895.68690222</v>
+        <v>12307212.14054037</v>
       </c>
     </row>
     <row r="11">
@@ -671,7 +671,7 @@
         <v>33.93991247395533</v>
       </c>
       <c r="G2" t="n">
-        <v>33.93991247395533</v>
+        <v>25.79717485420767</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>25.79717485420766</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,67 +741,67 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>33.93991247395533</v>
+      </c>
+      <c r="U3" t="n">
         <v>29.89427490705984</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="I3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.44627538834367</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>33.93991247395533</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.44627538834367</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>33.93991247395533</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>33.93991247395533</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,7 +911,7 @@
         <v>27.0180752910075</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="I5" t="n">
         <v>38.48106384277808</v>
@@ -944,7 +944,7 @@
         <v>38.48106384277808</v>
       </c>
       <c r="S5" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -972,29 +972,29 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>33.89412103271894</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>33.89412103271894</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
       <c r="Y6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>18.96187038700693</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>38.48106384277808</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>14.93225064571201</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.96187038700693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>251.0922347234454</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>253.2252689012162</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>253.2252689012162</v>
+        <v>251.0922347234454</v>
       </c>
       <c r="G8" t="n">
-        <v>12.93473850358632</v>
+        <v>98.78500591961358</v>
       </c>
       <c r="H8" t="n">
-        <v>89.80217063497993</v>
+        <v>251.0922347234454</v>
       </c>
       <c r="I8" t="n">
-        <v>119.1836076776734</v>
+        <v>119.9720579415532</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.120300031951558</v>
+        <v>2.404976483243814</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>253.2252689012162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>45.0967985560358</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>9.794601219695943</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0874684252533</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,22 +1257,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.49324208319393</v>
+        <v>22.17263268543606</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.1019708431429</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8580273987876</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9379502899671</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.8647867893957</v>
       </c>
       <c r="I10" t="n">
-        <v>123.5071387528641</v>
+        <v>74.85639229451591</v>
       </c>
       <c r="J10" t="n">
-        <v>18.26143966072843</v>
+        <v>18.91002497431325</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.9453752611723</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>253.2252689012162</v>
+        <v>251.0922347234454</v>
       </c>
       <c r="X10" t="n">
-        <v>147.2522925493183</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.480097856636</v>
+        <v>410.4085523457703</v>
       </c>
       <c r="H11" t="n">
-        <v>290.0849437131633</v>
+        <v>289.3522282500098</v>
       </c>
       <c r="I11" t="n">
-        <v>24.55107413611938</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>99.12416836819712</v>
+        <v>97.4938250393448</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9847444590516</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9598417351566</v>
+        <v>81.59681062608601</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>194.0225516980789</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7631774629108</v>
+        <v>134.7248972398095</v>
       </c>
       <c r="H12" t="n">
-        <v>87.3147950257065</v>
+        <v>86.94508866049034</v>
       </c>
       <c r="I12" t="n">
-        <v>10.68173680985416</v>
+        <v>9.363755444301489</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.7544928987082</v>
+        <v>123.0434545441712</v>
       </c>
       <c r="T12" t="n">
-        <v>189.7641489379116</v>
+        <v>189.6098527754984</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7716228901656</v>
+        <v>225.7691044544353</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>34.21350181106514</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.7956163798236</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.3166995770704</v>
+        <v>129.5373572370076</v>
       </c>
       <c r="T13" t="n">
-        <v>218.7025261647688</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2010328041907</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>331.6388439349715</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>34.32106446352932</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>144.7578728485163</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>188.5593037499532</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1895,7 +1895,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>148.905530700185</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>103.1714890340823</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>34.89507300046124</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>359.551749875468</v>
       </c>
       <c r="H20" t="n">
         <v>283.5630920045443</v>
@@ -2135,7 +2135,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T22" t="n">
-        <v>74.18033439553818</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>158.9622639406765</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>87.5616323099258</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>15.36445774807572</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2725,13 +2725,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>5.313812950988348</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>194.791424537681</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>15.36445774807632</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>168.1074334369711</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
         <v>286.1854515484204</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3029,22 +3029,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C32" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D32" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E32" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F32" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G32" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H32" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.02033873387032</v>
+        <v>81.02033873387035</v>
       </c>
       <c r="T32" t="n">
         <v>195.6048049705249</v>
@@ -3089,10 +3089,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W32" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504638</v>
       </c>
       <c r="X32" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y32" t="n">
         <v>382.6456867891043</v>
@@ -3187,7 +3187,7 @@
         <v>176.239728314988</v>
       </c>
       <c r="C34" t="n">
-        <v>80.67945300188264</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>141.828796155982</v>
       </c>
       <c r="G34" t="n">
-        <v>161.9498010102176</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H34" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>53.88662169520862</v>
       </c>
       <c r="S34" t="n">
         <v>177.7462364915097</v>
@@ -3241,7 +3241,7 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5931996814711</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V34" t="n">
         <v>248.5453914568787</v>
@@ -3266,22 +3266,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C35" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D35" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E35" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F35" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G35" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H35" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.02033873387032</v>
+        <v>81.02033873387035</v>
       </c>
       <c r="T35" t="n">
         <v>195.6048049705249</v>
@@ -3326,10 +3326,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W35" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504638</v>
       </c>
       <c r="X35" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y35" t="n">
         <v>382.6456867891043</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>176.239728314988</v>
+        <v>93.29258363957968</v>
       </c>
       <c r="C37" t="n">
         <v>163.6545692316786</v>
       </c>
       <c r="D37" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>149.0534979860111</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>78.21232487745975</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>63.58849972413426</v>
+        <v>63.58849972413428</v>
       </c>
       <c r="S37" t="n">
         <v>177.7462364915097</v>
@@ -3478,7 +3478,7 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5931996814711</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V37" t="n">
         <v>248.5453914568787</v>
@@ -3503,22 +3503,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C38" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D38" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E38" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F38" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G38" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H38" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.02033873387032</v>
+        <v>81.02033873387036</v>
       </c>
       <c r="T38" t="n">
         <v>195.6048049705249</v>
@@ -3563,10 +3563,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W38" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504639</v>
       </c>
       <c r="X38" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y38" t="n">
         <v>382.6456867891043</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>161.9498010102176</v>
+        <v>142.5911560589441</v>
       </c>
       <c r="H40" t="n">
-        <v>136.8617379250046</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I40" t="n">
-        <v>78.21232487745974</v>
+        <v>78.21232487745975</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>63.58849972413426</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>177.7462364915097</v>
@@ -3715,7 +3715,7 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U40" t="n">
-        <v>199.6460550060631</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V40" t="n">
         <v>248.5453914568787</v>
@@ -3740,22 +3740,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C41" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D41" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E41" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F41" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G41" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H41" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.02033873387033</v>
+        <v>81.02033873387036</v>
       </c>
       <c r="T41" t="n">
         <v>195.6048049705249</v>
@@ -3800,13 +3800,13 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W41" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504638</v>
       </c>
       <c r="X41" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y41" t="n">
-        <v>382.6456867891052</v>
+        <v>382.6456867891043</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>163.6545692316786</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>20.57502563020843</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9498010102176</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H43" t="n">
-        <v>136.8617379250046</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>78.21232487745975</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>63.58849972413426</v>
+        <v>63.58849972413428</v>
       </c>
       <c r="S43" t="n">
         <v>177.7462364915097</v>
@@ -3952,10 +3952,10 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U43" t="n">
-        <v>277.8583798835231</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V43" t="n">
-        <v>248.5453914568787</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>282.9307464696417</v>
@@ -3977,22 +3977,22 @@
         <v>379.1415897965313</v>
       </c>
       <c r="C44" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D44" t="n">
-        <v>351.0907897537336</v>
+        <v>351.0907897537337</v>
       </c>
       <c r="E44" t="n">
         <v>378.3381182053125</v>
       </c>
       <c r="F44" t="n">
-        <v>403.2837938747621</v>
+        <v>403.2837938747622</v>
       </c>
       <c r="G44" t="n">
         <v>406.2510241458083</v>
       </c>
       <c r="H44" t="n">
-        <v>279.970840137595</v>
+        <v>279.9708401375951</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>81.02033873387032</v>
+        <v>81.02033873387035</v>
       </c>
       <c r="T44" t="n">
         <v>195.6048049705249</v>
@@ -4037,10 +4037,10 @@
         <v>324.1600066031856</v>
       </c>
       <c r="W44" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504638</v>
       </c>
       <c r="X44" t="n">
-        <v>366.1388488115197</v>
+        <v>366.1388488115198</v>
       </c>
       <c r="Y44" t="n">
         <v>382.6456867891043</v>
@@ -4135,25 +4135,25 @@
         <v>176.239728314988</v>
       </c>
       <c r="C46" t="n">
-        <v>163.6545692316786</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G46" t="n">
-        <v>161.9498010102176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>53.91459324959696</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>78.21232487745974</v>
+        <v>28.03756028208704</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>63.58849972413426</v>
+        <v>63.58849972413428</v>
       </c>
       <c r="S46" t="n">
         <v>177.7462364915097</v>
@@ -4189,7 +4189,7 @@
         <v>213.8897425958125</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5931996814711</v>
+        <v>282.5931996814712</v>
       </c>
       <c r="V46" t="n">
         <v>248.5453914568787</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="C2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="D2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="E2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="F2" t="n">
-        <v>41.13641777246947</v>
+        <v>32.91143027777485</v>
       </c>
       <c r="G2" t="n">
         <v>6.853677899787311</v>
@@ -4334,16 +4334,16 @@
         <v>36.31570634713221</v>
       </c>
       <c r="L2" t="n">
-        <v>36.31570634713221</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M2" t="n">
-        <v>36.31570634713221</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="N2" t="n">
-        <v>68.55862319738975</v>
+        <v>103.5167330455638</v>
       </c>
       <c r="O2" t="n">
-        <v>102.1591365466055</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="P2" t="n">
         <v>135.7596498958213</v>
@@ -4355,25 +4355,25 @@
         <v>135.7596498958213</v>
       </c>
       <c r="S2" t="n">
-        <v>135.7596498958213</v>
+        <v>101.4769100231392</v>
       </c>
       <c r="T2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="U2" t="n">
-        <v>135.7596498958213</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="V2" t="n">
-        <v>101.4769100231392</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="W2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="X2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
       <c r="Y2" t="n">
-        <v>75.41915764515163</v>
+        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="C3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="D3" t="n">
-        <v>71.28067274328075</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="E3" t="n">
-        <v>71.28067274328075</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="F3" t="n">
-        <v>71.28067274328075</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="G3" t="n">
-        <v>71.28067274328075</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="H3" t="n">
-        <v>36.99793287059858</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="I3" t="n">
         <v>2.715192997916426</v>
       </c>
       <c r="J3" t="n">
-        <v>6.606010638615182</v>
+        <v>2.715192997916426</v>
       </c>
       <c r="K3" t="n">
-        <v>6.606010638615182</v>
+        <v>36.31570634713221</v>
       </c>
       <c r="L3" t="n">
-        <v>6.606010638615182</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="M3" t="n">
-        <v>34.95810984817397</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="N3" t="n">
-        <v>68.55862319738975</v>
+        <v>69.91621969634798</v>
       </c>
       <c r="O3" t="n">
         <v>102.1591365466055</v>
@@ -4431,28 +4431,28 @@
         <v>135.7596498958213</v>
       </c>
       <c r="R3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="S3" t="n">
-        <v>101.4769100231392</v>
+        <v>135.7596498958213</v>
       </c>
       <c r="T3" t="n">
         <v>101.4769100231392</v>
       </c>
       <c r="U3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="V3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="W3" t="n">
-        <v>101.4769100231392</v>
+        <v>71.28067274328075</v>
       </c>
       <c r="X3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
       <c r="Y3" t="n">
-        <v>101.4769100231392</v>
+        <v>36.99793287059858</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>101.4769100231392</v>
+      </c>
+      <c r="C4" t="n">
+        <v>67.19417015045701</v>
+      </c>
+      <c r="D4" t="n">
         <v>54.62217480869573</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20.33943493601357</v>
-      </c>
-      <c r="D4" t="n">
-        <v>20.33943493601357</v>
       </c>
       <c r="E4" t="n">
         <v>20.33943493601357</v>
@@ -4516,22 +4516,22 @@
         <v>135.7596498958213</v>
       </c>
       <c r="T4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="U4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="V4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="W4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="X4" t="n">
+        <v>135.7596498958213</v>
+      </c>
+      <c r="Y4" t="n">
         <v>101.4769100231392</v>
-      </c>
-      <c r="U4" t="n">
-        <v>101.4769100231392</v>
-      </c>
-      <c r="V4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="W4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="X4" t="n">
-        <v>67.19417015045701</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>67.19417015045701</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="E5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="F5" t="n">
-        <v>69.23923170720566</v>
+        <v>108.1089931645573</v>
       </c>
       <c r="G5" t="n">
-        <v>41.94824656477385</v>
+        <v>80.81800802212544</v>
       </c>
       <c r="H5" t="n">
         <v>41.94824656477385</v>
@@ -4571,19 +4571,19 @@
         <v>41.17473831177255</v>
       </c>
       <c r="L5" t="n">
-        <v>79.27099151612285</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="M5" t="n">
-        <v>117.3672447204732</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N5" t="n">
-        <v>148.7634570536217</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O5" t="n">
-        <v>148.7634570536217</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P5" t="n">
-        <v>148.7634570536217</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9242553711123</v>
@@ -4592,25 +4592,25 @@
         <v>115.0544939137607</v>
       </c>
       <c r="S5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="C6" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="D6" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E6" t="n">
-        <v>3.078485107422247</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="F6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="G6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="H6" t="n">
-        <v>3.078485107422247</v>
+        <v>41.94824656477385</v>
       </c>
       <c r="I6" t="n">
         <v>3.078485107422247</v>
       </c>
       <c r="J6" t="n">
-        <v>9.385105424419159</v>
+        <v>3.078485107422247</v>
       </c>
       <c r="K6" t="n">
-        <v>47.48135862876946</v>
+        <v>41.17473831177255</v>
       </c>
       <c r="L6" t="n">
-        <v>47.48135862876946</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="M6" t="n">
-        <v>47.48135862876946</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="N6" t="n">
-        <v>85.57761183311976</v>
+        <v>77.73174896241173</v>
       </c>
       <c r="O6" t="n">
-        <v>85.57761183311976</v>
+        <v>115.828002166762</v>
       </c>
       <c r="P6" t="n">
-        <v>115.828002166762</v>
+        <v>153.9242553711123</v>
       </c>
       <c r="Q6" t="n">
         <v>153.9242553711123</v>
@@ -4671,25 +4671,25 @@
         <v>153.9242553711123</v>
       </c>
       <c r="S6" t="n">
-        <v>119.687769479477</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="T6" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="U6" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="V6" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W6" t="n">
-        <v>80.81800802212544</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X6" t="n">
-        <v>80.81800802212544</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="Y6" t="n">
-        <v>41.94824656477385</v>
+        <v>76.18473245640914</v>
       </c>
     </row>
     <row r="7">
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="C7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="D7" t="n">
-        <v>57.03132802508901</v>
+        <v>76.18473245640914</v>
       </c>
       <c r="E7" t="n">
         <v>57.03132802508901</v>
@@ -4720,7 +4720,7 @@
         <v>57.03132802508901</v>
       </c>
       <c r="I7" t="n">
-        <v>18.16156656773741</v>
+        <v>57.03132802508901</v>
       </c>
       <c r="J7" t="n">
         <v>18.16156656773741</v>
@@ -4759,16 +4759,16 @@
         <v>115.0544939137607</v>
       </c>
       <c r="V7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="W7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="X7" t="n">
-        <v>76.18473245640914</v>
+        <v>115.0544939137607</v>
       </c>
       <c r="Y7" t="n">
-        <v>57.03132802508901</v>
+        <v>115.0544939137607</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>755.9863595107558</v>
+        <v>748.3111497961157</v>
       </c>
       <c r="C8" t="n">
-        <v>755.9863595107558</v>
+        <v>748.3111497961157</v>
       </c>
       <c r="D8" t="n">
-        <v>755.9863595107558</v>
+        <v>748.3111497961157</v>
       </c>
       <c r="E8" t="n">
-        <v>500.2032596105375</v>
+        <v>748.3111497961157</v>
       </c>
       <c r="F8" t="n">
-        <v>244.4201597103191</v>
+        <v>494.6826298734436</v>
       </c>
       <c r="G8" t="n">
-        <v>231.3547672824542</v>
+        <v>394.8997956112077</v>
       </c>
       <c r="H8" t="n">
-        <v>140.6455040147977</v>
+        <v>141.2712756885355</v>
       </c>
       <c r="I8" t="n">
-        <v>20.25802151209729</v>
+        <v>20.08737877787564</v>
       </c>
       <c r="J8" t="n">
-        <v>112.7916371054174</v>
+        <v>125.7072416215416</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1088552935259</v>
+        <v>203.4489876106624</v>
       </c>
       <c r="L8" t="n">
-        <v>329.6512284480655</v>
+        <v>336.7962597635276</v>
       </c>
       <c r="M8" t="n">
-        <v>513.2503649253059</v>
+        <v>516.8402307463507</v>
       </c>
       <c r="N8" t="n">
-        <v>704.4341357565686</v>
+        <v>704.4113097886852</v>
       </c>
       <c r="O8" t="n">
-        <v>871.6282879716096</v>
+        <v>868.1940995913194</v>
       </c>
       <c r="P8" t="n">
-        <v>979.8236278547703</v>
+        <v>973.4779205801498</v>
       </c>
       <c r="Q8" t="n">
-        <v>1012.901075604865</v>
+        <v>1004.368938893782</v>
       </c>
       <c r="R8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="S8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="T8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="U8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="V8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="W8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="X8" t="n">
-        <v>1011.769459410974</v>
+        <v>1001.939669718788</v>
       </c>
       <c r="Y8" t="n">
-        <v>755.9863595107558</v>
+        <v>1001.939669718788</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.25802151209729</v>
+        <v>341.8960339629919</v>
       </c>
       <c r="C9" t="n">
-        <v>20.25802151209729</v>
+        <v>167.4430046818648</v>
       </c>
       <c r="D9" t="n">
-        <v>20.25802151209729</v>
+        <v>157.5494680963134</v>
       </c>
       <c r="E9" t="n">
-        <v>20.25802151209729</v>
+        <v>157.5494680963134</v>
       </c>
       <c r="F9" t="n">
-        <v>20.25802151209729</v>
+        <v>157.5494680963134</v>
       </c>
       <c r="G9" t="n">
-        <v>20.25802151209729</v>
+        <v>20.08737877787564</v>
       </c>
       <c r="H9" t="n">
-        <v>20.25802151209729</v>
+        <v>20.08737877787564</v>
       </c>
       <c r="I9" t="n">
-        <v>20.25802151209729</v>
+        <v>20.08737877787564</v>
       </c>
       <c r="J9" t="n">
-        <v>20.25802151209729</v>
+        <v>20.08737877787564</v>
       </c>
       <c r="K9" t="n">
-        <v>86.34037297712169</v>
+        <v>84.42043718238006</v>
       </c>
       <c r="L9" t="n">
-        <v>221.5187907456891</v>
+        <v>217.2467145549065</v>
       </c>
       <c r="M9" t="n">
-        <v>398.6224964998192</v>
+        <v>391.605583410152</v>
       </c>
       <c r="N9" t="n">
-        <v>594.8222552724849</v>
+        <v>584.9878576187365</v>
       </c>
       <c r="O9" t="n">
-        <v>752.0869086166142</v>
+        <v>739.6750630270203</v>
       </c>
       <c r="P9" t="n">
-        <v>858.9725913787501</v>
+        <v>844.4921165888162</v>
       </c>
       <c r="Q9" t="n">
-        <v>1012.901075604865</v>
+        <v>1004.368938893782</v>
       </c>
       <c r="R9" t="n">
-        <v>991.1907300662849</v>
+        <v>981.972340221624</v>
       </c>
       <c r="S9" t="n">
-        <v>991.1907300662849</v>
+        <v>981.972340221624</v>
       </c>
       <c r="T9" t="n">
-        <v>991.1907300662849</v>
+        <v>784.8996424002675</v>
       </c>
       <c r="U9" t="n">
-        <v>763.0513084513479</v>
+        <v>784.8996424002675</v>
       </c>
       <c r="V9" t="n">
-        <v>527.8992002196053</v>
+        <v>549.7475341685247</v>
       </c>
       <c r="W9" t="n">
-        <v>273.6618434914037</v>
+        <v>549.7475341685247</v>
       </c>
       <c r="X9" t="n">
-        <v>65.81034328587083</v>
+        <v>341.8960339629919</v>
       </c>
       <c r="Y9" t="n">
-        <v>65.81034328587083</v>
+        <v>341.8960339629919</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>608.3782862608905</v>
+        <v>437.8339993316049</v>
       </c>
       <c r="C10" t="n">
-        <v>608.3782862608905</v>
+        <v>437.8339993316049</v>
       </c>
       <c r="D10" t="n">
-        <v>458.2616468485548</v>
+        <v>437.8339993316049</v>
       </c>
       <c r="E10" t="n">
-        <v>310.3485532661617</v>
+        <v>437.8339993316049</v>
       </c>
       <c r="F10" t="n">
-        <v>163.4586057682513</v>
+        <v>437.8339993316049</v>
       </c>
       <c r="G10" t="n">
-        <v>163.4586057682513</v>
+        <v>269.2098071195169</v>
       </c>
       <c r="H10" t="n">
-        <v>163.4586057682513</v>
+        <v>114.8009315746728</v>
       </c>
       <c r="I10" t="n">
-        <v>38.70392015929772</v>
+        <v>39.18841410546477</v>
       </c>
       <c r="J10" t="n">
-        <v>20.25802151209729</v>
+        <v>20.08737877787564</v>
       </c>
       <c r="K10" t="n">
-        <v>120.3857947210605</v>
+        <v>119.1599853281608</v>
       </c>
       <c r="L10" t="n">
-        <v>304.0413062457272</v>
+        <v>301.4652468108854</v>
       </c>
       <c r="M10" t="n">
-        <v>508.0694158401649</v>
+        <v>504.069707055121</v>
       </c>
       <c r="N10" t="n">
-        <v>712.6808094355476</v>
+        <v>707.2913024998367</v>
       </c>
       <c r="O10" t="n">
-        <v>885.6562532201104</v>
+        <v>878.9830427469094</v>
       </c>
       <c r="P10" t="n">
-        <v>1010.145945580233</v>
+        <v>1002.37430496407</v>
       </c>
       <c r="Q10" t="n">
-        <v>1012.901075604865</v>
+        <v>1004.368938893782</v>
       </c>
       <c r="R10" t="n">
-        <v>1012.901075604865</v>
+        <v>873.1109840845168</v>
       </c>
       <c r="S10" t="n">
-        <v>1012.901075604865</v>
+        <v>873.1109840845168</v>
       </c>
       <c r="T10" t="n">
-        <v>1012.901075604865</v>
+        <v>873.1109840845168</v>
       </c>
       <c r="U10" t="n">
-        <v>1012.901075604865</v>
+        <v>873.1109840845168</v>
       </c>
       <c r="V10" t="n">
-        <v>1012.901075604865</v>
+        <v>873.1109840845168</v>
       </c>
       <c r="W10" t="n">
-        <v>757.1179757046464</v>
+        <v>619.4824641618446</v>
       </c>
       <c r="X10" t="n">
-        <v>608.3782862608905</v>
+        <v>619.4824641618446</v>
       </c>
       <c r="Y10" t="n">
-        <v>608.3782862608905</v>
+        <v>619.4824641618446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.724723400518</v>
+        <v>2309.858011404755</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.762206460106</v>
+        <v>1940.895494464344</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.496507853356</v>
+        <v>1582.629795857593</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.708255255112</v>
+        <v>1196.841543259349</v>
       </c>
       <c r="F11" t="n">
-        <v>809.7223504655042</v>
+        <v>785.8556384697413</v>
       </c>
       <c r="G11" t="n">
-        <v>395.0959889941549</v>
+        <v>371.3015451911861</v>
       </c>
       <c r="H11" t="n">
-        <v>102.080894334394</v>
+        <v>79.02656716087314</v>
       </c>
       <c r="I11" t="n">
-        <v>77.28182955043498</v>
+        <v>79.02656716087314</v>
       </c>
       <c r="J11" t="n">
-        <v>303.2687416573981</v>
+        <v>311.0250917126459</v>
       </c>
       <c r="K11" t="n">
-        <v>692.7030600880739</v>
+        <v>709.4692588483279</v>
       </c>
       <c r="L11" t="n">
-        <v>1212.732530097297</v>
+        <v>1240.676242881432</v>
       </c>
       <c r="M11" t="n">
-        <v>1823.034951878372</v>
+        <v>1863.415802690457</v>
       </c>
       <c r="N11" t="n">
-        <v>2447.826513274235</v>
+        <v>2500.845748010192</v>
       </c>
       <c r="O11" t="n">
-        <v>3024.464206450096</v>
+        <v>3089.417508742988</v>
       </c>
       <c r="P11" t="n">
-        <v>3482.110135732205</v>
+        <v>3557.248888580531</v>
       </c>
       <c r="Q11" t="n">
-        <v>3777.610422894028</v>
+        <v>3860.398024925987</v>
       </c>
       <c r="R11" t="n">
-        <v>3864.091477521749</v>
+        <v>3951.328358043657</v>
       </c>
       <c r="S11" t="n">
-        <v>3763.96605492761</v>
+        <v>3852.849746892804</v>
       </c>
       <c r="T11" t="n">
-        <v>3559.941060524528</v>
+        <v>3852.849746892804</v>
       </c>
       <c r="U11" t="n">
-        <v>3306.446270893057</v>
+        <v>3770.428726058374</v>
       </c>
       <c r="V11" t="n">
-        <v>3306.446270893057</v>
+        <v>3439.365838714803</v>
       </c>
       <c r="W11" t="n">
-        <v>3110.463895440452</v>
+        <v>3086.597183444689</v>
       </c>
       <c r="X11" t="n">
-        <v>3110.463895440452</v>
+        <v>3086.597183444689</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.32456346464</v>
+        <v>2696.457851468877</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5520989445873</v>
+        <v>941.5534345814193</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0990696634603</v>
+        <v>767.1004053002923</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1646600022091</v>
+        <v>618.1659956390411</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9272049967536</v>
+        <v>458.9285406335855</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3926470236386</v>
+        <v>312.3939826604704</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2682253439306</v>
+        <v>176.3082278727841</v>
       </c>
       <c r="H12" t="n">
-        <v>88.07146269170181</v>
+        <v>88.48490599350092</v>
       </c>
       <c r="I12" t="n">
-        <v>77.28182955043498</v>
+        <v>79.02656716087314</v>
       </c>
       <c r="J12" t="n">
-        <v>193.0602392790136</v>
+        <v>198.3854520779124</v>
       </c>
       <c r="K12" t="n">
-        <v>469.0988071438611</v>
+        <v>480.5436223295365</v>
       </c>
       <c r="L12" t="n">
-        <v>886.5892680683955</v>
+        <v>906.2626438689331</v>
       </c>
       <c r="M12" t="n">
-        <v>1393.137812386715</v>
+        <v>1422.413530308667</v>
       </c>
       <c r="N12" t="n">
-        <v>1927.501834306653</v>
+        <v>1528.248999448822</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.834249560335</v>
+        <v>2003.88464830363</v>
       </c>
       <c r="P12" t="n">
-        <v>2372.003979083899</v>
+        <v>2366.291123045856</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.506341033253</v>
+        <v>2558.631057525964</v>
       </c>
       <c r="R12" t="n">
-        <v>2559.506341033253</v>
+        <v>2558.631057525964</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.50180275173</v>
+        <v>2434.344739804579</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.820844228587</v>
+        <v>2242.819635990944</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.768699895086</v>
+        <v>2014.770035531918</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.616591663344</v>
+        <v>1779.617927300176</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.379234935142</v>
+        <v>1525.380570571974</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.527734729609</v>
+        <v>1317.529070366441</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.767435964655</v>
+        <v>1109.768771601487</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>259.7540158712777</v>
+        <v>860.3527501569987</v>
       </c>
       <c r="C13" t="n">
-        <v>225.1949231328281</v>
+        <v>691.4165672290918</v>
       </c>
       <c r="D13" t="n">
-        <v>225.1949231328281</v>
+        <v>541.2999278167561</v>
       </c>
       <c r="E13" t="n">
-        <v>77.28182955043498</v>
+        <v>393.3868342343629</v>
       </c>
       <c r="F13" t="n">
-        <v>77.28182955043498</v>
+        <v>246.4968867364526</v>
       </c>
       <c r="G13" t="n">
-        <v>77.28182955043498</v>
+        <v>79.02656716087314</v>
       </c>
       <c r="H13" t="n">
-        <v>77.28182955043498</v>
+        <v>79.02656716087314</v>
       </c>
       <c r="I13" t="n">
-        <v>77.28182955043498</v>
+        <v>79.02656716087314</v>
       </c>
       <c r="J13" t="n">
-        <v>136.2700071292586</v>
+        <v>140.2610198089775</v>
       </c>
       <c r="K13" t="n">
-        <v>363.042540056987</v>
+        <v>370.724872703969</v>
       </c>
       <c r="L13" t="n">
-        <v>708.759741756981</v>
+        <v>721.1656930850761</v>
       </c>
       <c r="M13" t="n">
-        <v>1083.659180915633</v>
+        <v>1101.045525842752</v>
       </c>
       <c r="N13" t="n">
-        <v>1455.078965774394</v>
+        <v>1477.327281672479</v>
       </c>
       <c r="O13" t="n">
-        <v>1782.128957611176</v>
+        <v>1808.868090633753</v>
       </c>
       <c r="P13" t="n">
-        <v>2038.456043030645</v>
+        <v>2069.037845915856</v>
       </c>
       <c r="Q13" t="n">
-        <v>2132.488550345539</v>
+        <v>2165.730818662555</v>
       </c>
       <c r="R13" t="n">
-        <v>2132.488550345539</v>
+        <v>2165.730818662555</v>
       </c>
       <c r="S13" t="n">
-        <v>1944.289863904054</v>
+        <v>2034.885003271638</v>
       </c>
       <c r="T13" t="n">
-        <v>1723.378221313378</v>
+        <v>2034.885003271638</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.286268985913</v>
+        <v>2034.885003271638</v>
       </c>
       <c r="V13" t="n">
-        <v>1179.601780780026</v>
+        <v>1780.200515065751</v>
       </c>
       <c r="W13" t="n">
-        <v>890.1846107430649</v>
+        <v>1490.78334502879</v>
       </c>
       <c r="X13" t="n">
-        <v>662.1950598450476</v>
+        <v>1262.793794130768</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.4024807015174</v>
+        <v>1042.001214987238</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2266.424947555045</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
-        <v>1897.462430614634</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D14" t="n">
-        <v>1539.196732007883</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
         <v>1204.208000760437</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070876</v>
+        <v>4605.913419421675</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750194</v>
+        <v>4404.704271100994</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469744</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3769.398533126173</v>
+        <v>3820.198054476971</v>
       </c>
       <c r="W14" t="n">
-        <v>3416.629877856059</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3043.164119594979</v>
+        <v>3093.963640945777</v>
       </c>
       <c r="Y14" t="n">
-        <v>2653.024787619167</v>
+        <v>2703.824308969965</v>
       </c>
     </row>
     <row r="15">
@@ -5343,37 +5343,37 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L15" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1175.56231032196</v>
+        <v>1153.241917385462</v>
       </c>
       <c r="N15" t="n">
-        <v>1797.658273721296</v>
+        <v>1775.337880784798</v>
       </c>
       <c r="O15" t="n">
-        <v>2344.53474872149</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.385284034031</v>
+        <v>675.7074548523132</v>
       </c>
       <c r="C16" t="n">
-        <v>929.4491011061236</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="D16" t="n">
-        <v>779.3324616937879</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E16" t="n">
-        <v>631.4193681113948</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F16" t="n">
-        <v>484.5294206134844</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G16" t="n">
-        <v>317.3152257880632</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264936</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156344</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861978</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.184291169332</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5455,31 +5455,31 @@
         <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410167</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410167</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.696992124549</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>2018.233048942778</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.233048942778</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.815878905817</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X16" t="n">
-        <v>1500.8263280078</v>
+        <v>896.5000339958433</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.03374886427</v>
+        <v>675.7074548523132</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1948.261951965432</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1589.996253358682</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438402</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944177</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883215</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800321</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O17" t="n">
-        <v>3603.64596425946</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P17" t="n">
-        <v>4151.951912946808</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q17" t="n">
-        <v>4515.534099052815</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.740996026519</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402498</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3467.429399206857</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294086</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482816</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870304</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0359474815749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F18" t="n">
-        <v>314.5013895084599</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683894</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L18" t="n">
-        <v>142.676769632785</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M18" t="n">
-        <v>734.6951238849127</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N18" t="n">
-        <v>1356.791087284249</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O18" t="n">
-        <v>1903.667562284443</v>
+        <v>2052.947527885512</v>
       </c>
       <c r="P18" t="n">
-        <v>2323.251080710519</v>
+        <v>2472.531046311588</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695766</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.200649953124</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855537</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.877442379908</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.725334148165</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.487977419963</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.63647721443</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.876178449477</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9011758612336</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="C19" t="n">
-        <v>700.9649929333267</v>
+        <v>679.6040206802894</v>
       </c>
       <c r="D19" t="n">
-        <v>550.8483535209909</v>
+        <v>529.4873812679537</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948589</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139318</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931025</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335694</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R19" t="n">
-        <v>2429.412499335694</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S19" t="n">
-        <v>2325.198874048742</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T19" t="n">
-        <v>2105.520091763124</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U19" t="n">
-        <v>1816.443878077851</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.759389871964</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.342219835003</v>
+        <v>1124.489584893861</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.342219835003</v>
+        <v>896.5000339958435</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.549640691473</v>
+        <v>861.2524855105291</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831371</v>
+        <v>2266.424947555047</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890959</v>
+        <v>1897.462430614635</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1539.196732007885</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1153.408479409641</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>742.4225746200332</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J20" t="n">
-        <v>424.1437450015196</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892015</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L20" t="n">
-        <v>1513.293909294976</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234014</v>
+        <v>2182.462224957688</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.58344915112</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610258</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297606</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403613</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.740996026519</v>
+        <v>4353.904749750196</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3769.398533126175</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3416.629877856061</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3043.164119594981</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895493</v>
+        <v>2653.024787619169</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294086</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482816</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870304</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903453</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K21" t="n">
-        <v>241.496329903453</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="L21" t="n">
-        <v>241.496329903453</v>
+        <v>372.2013186925058</v>
       </c>
       <c r="M21" t="n">
-        <v>734.6951238849127</v>
+        <v>964.2196729446335</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695766</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.200649953124</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855537</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U21" t="n">
-        <v>2016.877442379908</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V21" t="n">
-        <v>1781.725334148165</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W21" t="n">
-        <v>1527.487977419963</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.63647721443</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y21" t="n">
-        <v>1111.876178449477</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.7042115721531</v>
+        <v>1098.385284034031</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7680286442462</v>
+        <v>929.4491011061237</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6513892319105</v>
+        <v>779.332461693788</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7382956495174</v>
+        <v>631.4193681113949</v>
       </c>
       <c r="F22" t="n">
-        <v>93.84834815160703</v>
+        <v>484.5294206134845</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>317.3152257880633</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>171.7937461156345</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117245</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948588</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1238.413883213792</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1653.109749005499</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335694</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335694</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074624</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.31267837206</v>
+        <v>1957.667456821982</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.236464686788</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.551976480901</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.13480644394</v>
+        <v>1508.023299762288</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.145255545923</v>
+        <v>1280.03374886427</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3526764023929</v>
+        <v>1280.03374886427</v>
       </c>
     </row>
     <row r="23">
@@ -5978,7 +5978,7 @@
         <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5987,13 +5987,13 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M23" t="n">
         <v>2234.298471234014</v>
@@ -6020,19 +6020,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>373.2380436180322</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>965.25639787016</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.352361269496</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.7462509176839</v>
+        <v>562.9550599890983</v>
       </c>
       <c r="C25" t="n">
-        <v>493.8100679897771</v>
+        <v>562.9550599890983</v>
       </c>
       <c r="D25" t="n">
-        <v>343.6934285774413</v>
+        <v>412.8384205767626</v>
       </c>
       <c r="E25" t="n">
-        <v>343.6934285774413</v>
+        <v>264.9253269943695</v>
       </c>
       <c r="F25" t="n">
-        <v>343.6934285774413</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G25" t="n">
         <v>176.4792337520202</v>
@@ -6148,10 +6148,10 @@
         <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948584</v>
       </c>
       <c r="M25" t="n">
         <v>1239.450608139318</v>
@@ -6169,28 +6169,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294195</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S25" t="n">
-        <v>2346.03350000321</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T25" t="n">
-        <v>2126.354717717592</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U25" t="n">
-        <v>1837.278504032319</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.594015826432</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W25" t="n">
-        <v>1293.176845789471</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>1065.187294891454</v>
+        <v>965.3961039628682</v>
       </c>
       <c r="Y25" t="n">
-        <v>844.3947157479237</v>
+        <v>744.6035248193381</v>
       </c>
     </row>
     <row r="26">
@@ -6212,58 +6212,58 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J26" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M26" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N26" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O26" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P26" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q26" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T26" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X26" t="n">
         <v>3095.000365871304</v>
@@ -6297,28 +6297,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L27" t="n">
-        <v>373.2380436180322</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M27" t="n">
-        <v>965.25639787016</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N27" t="n">
-        <v>1587.352361269496</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O27" t="n">
-        <v>2134.22883626969</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P27" t="n">
         <v>2553.812354695766</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.9550599890986</v>
+        <v>807.4326525856518</v>
       </c>
       <c r="C28" t="n">
-        <v>394.0188770611917</v>
+        <v>638.4964696577449</v>
       </c>
       <c r="D28" t="n">
-        <v>394.0188770611917</v>
+        <v>638.4964696577449</v>
       </c>
       <c r="E28" t="n">
-        <v>246.1057834787985</v>
+        <v>490.5833760753518</v>
       </c>
       <c r="F28" t="n">
-        <v>99.21583598088819</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411603</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117247</v>
+        <v>432.459198011724</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948587</v>
+        <v>820.2210160948582</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139317</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931024</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946054</v>
       </c>
       <c r="P28" t="n">
         <v>2311.699365782259</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033125</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789007</v>
+        <v>1981.623949348599</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103733</v>
+        <v>1692.547735663326</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897846</v>
+        <v>1437.863247457439</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860886</v>
+        <v>1437.863247457439</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628684</v>
+        <v>1209.873696559422</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193383</v>
+        <v>989.0811174158915</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E29" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K29" t="n">
         <v>842.974607438402</v>
@@ -6482,31 +6482,31 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612963</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>242.5353624779756</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>573.0441050413344</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L30" t="n">
-        <v>1063.776437885086</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.794792137213</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N30" t="n">
-        <v>1655.794792137213</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O30" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.791123359144</v>
+        <v>678.2659052086706</v>
       </c>
       <c r="C31" t="n">
-        <v>847.8549404312369</v>
+        <v>509.3297222807637</v>
       </c>
       <c r="D31" t="n">
-        <v>697.7383010189012</v>
+        <v>359.2130828684278</v>
       </c>
       <c r="E31" t="n">
-        <v>549.8252074365081</v>
+        <v>359.2130828684278</v>
       </c>
       <c r="F31" t="n">
-        <v>402.9352599385977</v>
+        <v>359.2130828684278</v>
       </c>
       <c r="G31" t="n">
-        <v>235.7210651131766</v>
+        <v>191.9988880430067</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117245</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948587</v>
       </c>
       <c r="M31" t="n">
         <v>1239.450608139318</v>
@@ -6637,34 +6637,34 @@
         <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782259</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
         <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T31" t="n">
-        <v>2259.607011015521</v>
+        <v>2141.874372008578</v>
       </c>
       <c r="U31" t="n">
-        <v>1970.530797330248</v>
+        <v>1852.798158323305</v>
       </c>
       <c r="V31" t="n">
-        <v>1715.846309124361</v>
+        <v>1598.113670117418</v>
       </c>
       <c r="W31" t="n">
-        <v>1426.429139087401</v>
+        <v>1308.696500080458</v>
       </c>
       <c r="X31" t="n">
-        <v>1198.439588189383</v>
+        <v>1080.70694918244</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.439588189383</v>
+        <v>859.9143700389102</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F32" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921439</v>
       </c>
       <c r="G32" t="n">
         <v>375.6104516478937</v>
@@ -6695,28 +6695,28 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I32" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J32" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251953</v>
       </c>
       <c r="K32" t="n">
-        <v>841.9378825128763</v>
+        <v>841.9378825128772</v>
       </c>
       <c r="L32" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M32" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N32" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O32" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P32" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q32" t="n">
         <v>4514.497374127289</v>
@@ -6743,7 +6743,7 @@
         <v>3064.935343031035</v>
       </c>
       <c r="Y32" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J33" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K33" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L33" t="n">
-        <v>583.5439560698319</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M33" t="n">
-        <v>1175.56231032196</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N33" t="n">
-        <v>1797.658273721296</v>
+        <v>2275.814998036501</v>
       </c>
       <c r="O33" t="n">
-        <v>2344.53474872149</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P33" t="n">
         <v>2552.77562977024</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>619.3972677645525</v>
+        <v>564.9663367592907</v>
       </c>
       <c r="C34" t="n">
-        <v>537.9028707929535</v>
+        <v>399.6586910707267</v>
       </c>
       <c r="D34" t="n">
-        <v>537.9028707929535</v>
+        <v>399.6586910707267</v>
       </c>
       <c r="E34" t="n">
-        <v>537.9028707929535</v>
+        <v>399.6586910707267</v>
       </c>
       <c r="F34" t="n">
-        <v>394.6414605343859</v>
+        <v>256.397280812159</v>
       </c>
       <c r="G34" t="n">
-        <v>231.0558029483074</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H34" t="n">
         <v>92.81162322608054</v>
@@ -6859,10 +6859,10 @@
         <v>175.3500754639142</v>
       </c>
       <c r="K34" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L34" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M34" t="n">
         <v>1252.639200606911</v>
@@ -6877,31 +6877,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q34" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R34" t="n">
-        <v>2456.826409196407</v>
+        <v>2402.395478191145</v>
       </c>
       <c r="S34" t="n">
-        <v>2277.284756174679</v>
+        <v>2222.853825169418</v>
       </c>
       <c r="T34" t="n">
-        <v>2061.234511128404</v>
+        <v>2006.803580123143</v>
       </c>
       <c r="U34" t="n">
-        <v>1775.786834682473</v>
+        <v>1721.355903677212</v>
       </c>
       <c r="V34" t="n">
-        <v>1524.730883715929</v>
+        <v>1470.299952710668</v>
       </c>
       <c r="W34" t="n">
-        <v>1238.942250918311</v>
+        <v>1184.51131991305</v>
       </c>
       <c r="X34" t="n">
-        <v>1014.581237259637</v>
+        <v>960.1503062543752</v>
       </c>
       <c r="Y34" t="n">
-        <v>797.4171953554494</v>
+        <v>742.9862643501878</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1930.119265768718</v>
       </c>
       <c r="D35" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.48210440131</v>
       </c>
       <c r="E35" t="n">
         <v>1193.322389042409</v>
       </c>
       <c r="F35" t="n">
-        <v>785.9650214921444</v>
+        <v>785.9650214921435</v>
       </c>
       <c r="G35" t="n">
-        <v>375.6104516478936</v>
+        <v>375.6104516478937</v>
       </c>
       <c r="H35" t="n">
         <v>92.81162322608054</v>
       </c>
       <c r="I35" t="n">
-        <v>92.81162322607997</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J35" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251936</v>
       </c>
       <c r="K35" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L35" t="n">
         <v>1461.457663018652</v>
@@ -6947,7 +6947,7 @@
         <v>2182.46222495769</v>
       </c>
       <c r="N35" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O35" t="n">
         <v>3602.609239333934</v>
@@ -6968,16 +6968,16 @@
         <v>4361.161824228881</v>
       </c>
       <c r="U35" t="n">
-        <v>4111.347032187773</v>
+        <v>4111.347032187772</v>
       </c>
       <c r="V35" t="n">
-        <v>3783.912682083545</v>
+        <v>3783.912682083544</v>
       </c>
       <c r="W35" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052772</v>
       </c>
       <c r="X35" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031035</v>
       </c>
       <c r="Y35" t="n">
         <v>2678.424548294566</v>
@@ -7014,22 +7014,22 @@
         <v>92.81162322608054</v>
       </c>
       <c r="J36" t="n">
-        <v>92.81162322608054</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K36" t="n">
-        <v>92.81162322608054</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L36" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M36" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N36" t="n">
-        <v>1586.31563634397</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O36" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P36" t="n">
         <v>2552.77562977024</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>555.1664599623969</v>
+        <v>638.9514545840206</v>
       </c>
       <c r="C37" t="n">
-        <v>389.8588142738327</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="D37" t="n">
-        <v>243.3707121008397</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="E37" t="n">
-        <v>243.3707121008397</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="F37" t="n">
-        <v>243.3707121008397</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="G37" t="n">
-        <v>92.81162322608054</v>
+        <v>310.0581513093779</v>
       </c>
       <c r="H37" t="n">
-        <v>92.81162322608054</v>
+        <v>171.813971587151</v>
       </c>
       <c r="I37" t="n">
         <v>92.81162322608054</v>
@@ -7099,7 +7099,7 @@
         <v>438.5351317827577</v>
       </c>
       <c r="L37" t="n">
-        <v>829.8532792141717</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M37" t="n">
         <v>1252.639200606911</v>
@@ -7111,7 +7111,7 @@
         <v>2041.470182110207</v>
       </c>
       <c r="P37" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q37" t="n">
         <v>2456.826409196407</v>
@@ -7126,19 +7126,19 @@
         <v>1997.003703326248</v>
       </c>
       <c r="U37" t="n">
-        <v>1711.556026880318</v>
+        <v>1711.556026880317</v>
       </c>
       <c r="V37" t="n">
-        <v>1460.500075913774</v>
+        <v>1460.500075913773</v>
       </c>
       <c r="W37" t="n">
-        <v>1174.711443116156</v>
+        <v>1174.711443116155</v>
       </c>
       <c r="X37" t="n">
-        <v>950.3504294574811</v>
+        <v>950.3504294574807</v>
       </c>
       <c r="Y37" t="n">
-        <v>733.1863875532938</v>
+        <v>733.186387553293</v>
       </c>
     </row>
     <row r="38">
@@ -7157,58 +7157,58 @@
         <v>1575.482104401311</v>
       </c>
       <c r="E38" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042409</v>
       </c>
       <c r="F38" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921446</v>
       </c>
       <c r="G38" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H38" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I38" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608088</v>
       </c>
       <c r="J38" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K38" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128765</v>
       </c>
       <c r="L38" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M38" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N38" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O38" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333934</v>
       </c>
       <c r="P38" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q38" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R38" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S38" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T38" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U38" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V38" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W38" t="n">
         <v>3434.772564052773</v>
@@ -7239,40 +7239,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F39" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G39" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H39" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I39" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K39" t="n">
-        <v>241.4986375524491</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L39" t="n">
-        <v>241.4986375524491</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M39" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O39" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P39" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q39" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R39" t="n">
         <v>2552.77562977024</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>638.9514545840206</v>
+        <v>619.3972677645528</v>
       </c>
       <c r="C40" t="n">
-        <v>473.6438088954563</v>
+        <v>454.0896220759886</v>
       </c>
       <c r="D40" t="n">
-        <v>473.6438088954563</v>
+        <v>454.0896220759886</v>
       </c>
       <c r="E40" t="n">
-        <v>473.6438088954563</v>
+        <v>454.0896220759886</v>
       </c>
       <c r="F40" t="n">
-        <v>473.6438088954563</v>
+        <v>454.0896220759886</v>
       </c>
       <c r="G40" t="n">
         <v>310.0581513093779</v>
@@ -7327,55 +7327,55 @@
         <v>171.813971587151</v>
       </c>
       <c r="I40" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J40" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K40" t="n">
-        <v>438.5351317827577</v>
+        <v>438.5351317827574</v>
       </c>
       <c r="L40" t="n">
-        <v>829.8532792141717</v>
+        <v>829.8532792141714</v>
       </c>
       <c r="M40" t="n">
-        <v>1252.639200606911</v>
+        <v>1252.63920060691</v>
       </c>
       <c r="N40" t="n">
-        <v>1670.891395746898</v>
+        <v>1670.891395746897</v>
       </c>
       <c r="O40" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110206</v>
       </c>
       <c r="P40" t="n">
         <v>2335.556946294691</v>
       </c>
       <c r="Q40" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R40" t="n">
-        <v>2392.59560139425</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="S40" t="n">
-        <v>2213.053948372523</v>
+        <v>2277.284756174679</v>
       </c>
       <c r="T40" t="n">
-        <v>1997.003703326248</v>
+        <v>2061.234511128403</v>
       </c>
       <c r="U40" t="n">
-        <v>1795.341021501942</v>
+        <v>1775.786834682474</v>
       </c>
       <c r="V40" t="n">
-        <v>1544.285070535398</v>
+        <v>1524.73088371593</v>
       </c>
       <c r="W40" t="n">
-        <v>1258.49643773778</v>
+        <v>1238.942250918312</v>
       </c>
       <c r="X40" t="n">
-        <v>1034.135424079105</v>
+        <v>1014.581237259637</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.9713821749176</v>
+        <v>797.4171953554498</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C41" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D41" t="n">
         <v>1575.482104401311</v>
@@ -7397,37 +7397,37 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F41" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921446</v>
       </c>
       <c r="G41" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H41" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I41" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J41" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K41" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L41" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M41" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N41" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O41" t="n">
         <v>3602.609239333934</v>
       </c>
       <c r="P41" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021282</v>
       </c>
       <c r="Q41" t="n">
         <v>4514.49737412729</v>
@@ -7454,7 +7454,7 @@
         <v>3064.935343031036</v>
       </c>
       <c r="Y41" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>92.81162322608056</v>
       </c>
       <c r="J42" t="n">
-        <v>92.81162322608056</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K42" t="n">
-        <v>92.81162322608056</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L42" t="n">
-        <v>106.3138404733484</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M42" t="n">
-        <v>698.3321947254761</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N42" t="n">
-        <v>1320.428158124812</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.304633125007</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P42" t="n">
-        <v>2286.888151551083</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q42" t="n">
-        <v>2517.44942553633</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R42" t="n">
         <v>2552.77562977024</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>559.9491062229501</v>
+        <v>806.2224109289414</v>
       </c>
       <c r="C43" t="n">
-        <v>394.6414605343859</v>
+        <v>640.9147652403772</v>
       </c>
       <c r="D43" t="n">
-        <v>394.6414605343859</v>
+        <v>494.4266630673841</v>
       </c>
       <c r="E43" t="n">
-        <v>394.6414605343859</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="F43" t="n">
-        <v>394.6414605343859</v>
+        <v>473.6438088954563</v>
       </c>
       <c r="G43" t="n">
-        <v>231.0558029483075</v>
+        <v>310.0581513093779</v>
       </c>
       <c r="H43" t="n">
-        <v>92.81162322608056</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I43" t="n">
         <v>92.81162322608056</v>
@@ -7573,7 +7573,7 @@
         <v>438.5351317827577</v>
       </c>
       <c r="L43" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M43" t="n">
         <v>1252.639200606911</v>
@@ -7600,19 +7600,19 @@
         <v>1997.003703326248</v>
       </c>
       <c r="U43" t="n">
-        <v>1716.338673140871</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V43" t="n">
-        <v>1465.282722174327</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="W43" t="n">
-        <v>1179.494089376709</v>
+        <v>1425.767394082701</v>
       </c>
       <c r="X43" t="n">
-        <v>955.1330757180342</v>
+        <v>1201.406380424026</v>
       </c>
       <c r="Y43" t="n">
-        <v>737.969033813847</v>
+        <v>984.2423385198384</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2295.453245469787</v>
+        <v>2295.453245469788</v>
       </c>
       <c r="C44" t="n">
-        <v>1930.119265768718</v>
+        <v>1930.119265768719</v>
       </c>
       <c r="D44" t="n">
         <v>1575.482104401311</v>
       </c>
       <c r="E44" t="n">
-        <v>1193.322389042409</v>
+        <v>1193.32238904241</v>
       </c>
       <c r="F44" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921448</v>
       </c>
       <c r="G44" t="n">
         <v>375.6104516478937</v>
       </c>
       <c r="H44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I44" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J44" t="n">
         <v>372.3074987251936</v>
       </c>
       <c r="K44" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128755</v>
       </c>
       <c r="L44" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M44" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957691</v>
       </c>
       <c r="N44" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874797</v>
       </c>
       <c r="O44" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P44" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q44" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R44" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S44" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.74243531022</v>
       </c>
       <c r="T44" t="n">
         <v>4361.161824228881</v>
       </c>
       <c r="U44" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187773</v>
       </c>
       <c r="V44" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083545</v>
       </c>
       <c r="W44" t="n">
         <v>3434.772564052773</v>
       </c>
       <c r="X44" t="n">
-        <v>3064.935343031035</v>
+        <v>3064.935343031036</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.424548294566</v>
+        <v>2678.424548294567</v>
       </c>
     </row>
     <row r="45">
@@ -7713,34 +7713,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F45" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G45" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H45" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I45" t="n">
-        <v>93.85065580060314</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4986375524491</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K45" t="n">
-        <v>372.2013186925058</v>
+        <v>570.9683475412853</v>
       </c>
       <c r="L45" t="n">
-        <v>372.2013186925058</v>
+        <v>1061.700680385037</v>
       </c>
       <c r="M45" t="n">
-        <v>964.2196729446335</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N45" t="n">
-        <v>1586.31563634397</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O45" t="n">
-        <v>2133.192111344164</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P45" t="n">
         <v>2552.77562977024</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.1664599623959</v>
+        <v>555.1664599623958</v>
       </c>
       <c r="C46" t="n">
-        <v>389.8588142738317</v>
+        <v>555.1664599623958</v>
       </c>
       <c r="D46" t="n">
-        <v>389.8588142738317</v>
+        <v>408.6783577894028</v>
       </c>
       <c r="E46" t="n">
-        <v>389.8588142738317</v>
+        <v>264.3938014463523</v>
       </c>
       <c r="F46" t="n">
-        <v>389.8588142738317</v>
+        <v>121.1323911877846</v>
       </c>
       <c r="G46" t="n">
-        <v>226.2731566877533</v>
+        <v>121.1323911877846</v>
       </c>
       <c r="H46" t="n">
-        <v>171.813971587151</v>
+        <v>121.1323911877846</v>
       </c>
       <c r="I46" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J46" t="n">
         <v>175.3500754639143</v>
       </c>
       <c r="K46" t="n">
-        <v>438.5351317827577</v>
+        <v>438.5351317827576</v>
       </c>
       <c r="L46" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141716</v>
       </c>
       <c r="M46" t="n">
         <v>1252.639200606911</v>
@@ -7825,16 +7825,16 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q46" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R46" t="n">
         <v>2392.59560139425</v>
       </c>
       <c r="S46" t="n">
-        <v>2213.053948372523</v>
+        <v>2213.053948372522</v>
       </c>
       <c r="T46" t="n">
-        <v>1997.003703326248</v>
+        <v>1997.003703326247</v>
       </c>
       <c r="U46" t="n">
         <v>1711.556026880317</v>
@@ -7982,19 +7982,19 @@
         <v>242.2613672256909</v>
       </c>
       <c r="L2" t="n">
-        <v>221.1666787354324</v>
+        <v>255.1065912093878</v>
       </c>
       <c r="M2" t="n">
-        <v>214.1012135983212</v>
+        <v>248.0411260722765</v>
       </c>
       <c r="N2" t="n">
-        <v>245.4737854454458</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O2" t="n">
-        <v>248.4501999472249</v>
+        <v>247.0788903523176</v>
       </c>
       <c r="P2" t="n">
-        <v>251.8689757786171</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236088</v>
+        <v>163.7881088975641</v>
       </c>
       <c r="L3" t="n">
-        <v>127.8064787429921</v>
+        <v>161.7463912169474</v>
       </c>
       <c r="M3" t="n">
-        <v>158.2302244077775</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N3" t="n">
-        <v>152.4073738031007</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O3" t="n">
-        <v>164.7587326673596</v>
+        <v>163.3874230724523</v>
       </c>
       <c r="P3" t="n">
         <v>158.4618986107626</v>
@@ -8219,22 +8219,22 @@
         <v>240.6620276789126</v>
       </c>
       <c r="L5" t="n">
-        <v>252.0299206180583</v>
+        <v>213.5488567752802</v>
       </c>
       <c r="M5" t="n">
-        <v>244.1059827132785</v>
+        <v>242.5511922549844</v>
       </c>
       <c r="N5" t="n">
-        <v>236.0050783192468</v>
+        <v>204.2917325281876</v>
       </c>
       <c r="O5" t="n">
-        <v>206.3768508508745</v>
+        <v>244.8579146936526</v>
       </c>
       <c r="P5" t="n">
-        <v>210.9873633211545</v>
+        <v>249.4684271639326</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>207.1020630664798</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>119.7207117878867</v>
       </c>
       <c r="K6" t="n">
         <v>164.1585617237782</v>
       </c>
       <c r="L6" t="n">
-        <v>122.1984598562864</v>
+        <v>159.1247332407705</v>
       </c>
       <c r="M6" t="n">
         <v>123.047446830095</v>
       </c>
       <c r="N6" t="n">
-        <v>150.2310236677773</v>
+        <v>111.7499598249992</v>
       </c>
       <c r="O6" t="n">
-        <v>124.673618687554</v>
+        <v>163.1546825303321</v>
       </c>
       <c r="P6" t="n">
-        <v>150.1458699897895</v>
+        <v>158.0709840006057</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.8471891366353</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.53324699936317</v>
+        <v>88.48746043642737</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>7.134746067061954</v>
+        <v>8.168565858168009</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.7347801277558</v>
+        <v>141.139994184899</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>51.312647829089</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.56319401867222e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>51.31264782908983</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10589,7 +10589,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>21.79281582846917</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,16 +23309,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.6715539852369</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>169.3573074682013</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>155.2184170193341</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>133.0333192875627</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8277092329558</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9937344825131</v>
+        <v>142.708399842847</v>
       </c>
       <c r="I13" t="n">
-        <v>90.39504242576875</v>
+        <v>89.42992280612104</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>80.02490009773568</v>
+        <v>78.58188871962878</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.22005143593199</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.5654021559313</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.199282284929</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>50.29152613729025</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>50.29152613729029</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>22.48894825011158</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>97.62614779846723</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>50.29152613728917</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>78.16699932437669</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>183.6895803516335</v>
       </c>
     </row>
     <row r="20">
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>50.29152613728957</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24023,7 +24023,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>127.5607343959145</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>57.85941571300545</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>165.9740306103832</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.2282399261786</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>22.69056992508082</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>125.0895320438776</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
-        <v>49.37456102579065</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>82.97511622979592</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>145.0232211512631</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I34" t="n">
-        <v>78.21232487745974</v>
+        <v>78.21232487745975</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>63.58849972413426</v>
+        <v>9.701878028925655</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>82.94714467540835</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E37" t="n">
         <v>142.8417107796199</v>
@@ -25324,13 +25324,13 @@
         <v>141.828796155982</v>
       </c>
       <c r="G37" t="n">
-        <v>12.8963030242065</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>78.21232487745974</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25561,7 +25561,7 @@
         <v>141.828796155982</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>19.35864495127359</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>63.58849972413428</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.94714467540797</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>142.8417107796199</v>
+        <v>122.2666851494115</v>
       </c>
       <c r="F43" t="n">
         <v>141.828796155982</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>78.21232487745974</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,10 +25840,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>4.734819797947978</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>248.5453914568787</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D46" t="n">
-        <v>145.0232211512631</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>141.828796155982</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>161.9498010102177</v>
       </c>
       <c r="H46" t="n">
-        <v>82.94714467540767</v>
+        <v>136.8617379250047</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.17476459537271</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1080498.605965556</v>
+        <v>1080963.057092983</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>958159.1383369466</v>
+        <v>968567.4725863207</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1057232.543864434</v>
+        <v>1050803.030709589</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1057232.543864434</v>
+        <v>1050803.030709589</v>
       </c>
     </row>
     <row r="9">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389277</v>
+        <v>369468.7964389279</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389275</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="E2" t="n">
-        <v>329136.8575696609</v>
+        <v>332739.7425021366</v>
       </c>
       <c r="F2" t="n">
+        <v>361205.8972371141</v>
+      </c>
+      <c r="G2" t="n">
+        <v>361205.8972371141</v>
+      </c>
+      <c r="H2" t="n">
         <v>361205.897237114</v>
       </c>
-      <c r="G2" t="n">
-        <v>363007.3397033518</v>
-      </c>
-      <c r="H2" t="n">
-        <v>363007.3397033518</v>
-      </c>
       <c r="I2" t="n">
-        <v>363007.3397033518</v>
+        <v>363007.3397033519</v>
       </c>
       <c r="J2" t="n">
         <v>363007.3397033518</v>
@@ -26347,13 +26347,13 @@
         <v>363932.2750130951</v>
       </c>
       <c r="N2" t="n">
+        <v>363932.2750130953</v>
+      </c>
+      <c r="O2" t="n">
         <v>363932.2750130952</v>
       </c>
-      <c r="O2" t="n">
-        <v>363932.2750130951</v>
-      </c>
       <c r="P2" t="n">
-        <v>363932.2750130951</v>
+        <v>363932.2750130954</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>12401.51063995663</v>
       </c>
       <c r="D3" t="n">
-        <v>541175.1864270722</v>
+        <v>536155.792182749</v>
       </c>
       <c r="E3" t="n">
-        <v>703377.0148017486</v>
+        <v>728910.8934088465</v>
       </c>
       <c r="F3" t="n">
-        <v>180835.0655769718</v>
+        <v>160518.650124976</v>
       </c>
       <c r="G3" t="n">
-        <v>3551.88439016159</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3446.086611511551</v>
       </c>
       <c r="J3" t="n">
-        <v>8880.174459335547</v>
+        <v>8880.174459335607</v>
       </c>
       <c r="K3" t="n">
-        <v>1168.747045491229</v>
+        <v>1168.747045491112</v>
       </c>
       <c r="L3" t="n">
-        <v>53943.80524442423</v>
+        <v>53403.95349133808</v>
       </c>
       <c r="M3" t="n">
-        <v>177632.0132298238</v>
+        <v>183598.5187724564</v>
       </c>
       <c r="N3" t="n">
-        <v>47545.8221949355</v>
+        <v>42204.15533603825</v>
       </c>
       <c r="O3" t="n">
-        <v>3118.611125660987</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>397057.3584744651</v>
       </c>
       <c r="D4" t="n">
-        <v>253226.2146602729</v>
+        <v>254565.2527709767</v>
       </c>
       <c r="E4" t="n">
-        <v>8010.238684033253</v>
+        <v>8021.526602847372</v>
       </c>
       <c r="F4" t="n">
-        <v>8110.779805506621</v>
+        <v>8110.779805506622</v>
       </c>
       <c r="G4" t="n">
-        <v>9342.252565816061</v>
+        <v>8110.77980550666</v>
       </c>
       <c r="H4" t="n">
+        <v>8110.779805506661</v>
+      </c>
+      <c r="I4" t="n">
         <v>9342.252565816096</v>
       </c>
-      <c r="I4" t="n">
-        <v>9342.252565816094</v>
-      </c>
       <c r="J4" t="n">
-        <v>9342.252565816061</v>
+        <v>9342.252565816118</v>
       </c>
       <c r="K4" t="n">
-        <v>9342.252565816079</v>
+        <v>9342.252565816059</v>
       </c>
       <c r="L4" t="n">
-        <v>11577.70757651847</v>
+        <v>11577.70757651849</v>
       </c>
       <c r="M4" t="n">
-        <v>11577.70757651847</v>
+        <v>11577.70757651849</v>
       </c>
       <c r="N4" t="n">
-        <v>11577.70757651849</v>
+        <v>11577.70757651844</v>
       </c>
       <c r="O4" t="n">
-        <v>11577.70757651843</v>
+        <v>11577.70757651845</v>
       </c>
       <c r="P4" t="n">
-        <v>11577.70757651847</v>
+        <v>11577.70757651845</v>
       </c>
     </row>
     <row r="5">
@@ -26473,28 +26473,28 @@
         <v>36730.71216531784</v>
       </c>
       <c r="D5" t="n">
-        <v>61864.76298906983</v>
+        <v>61624.17201009634</v>
       </c>
       <c r="E5" t="n">
-        <v>84886.15966645657</v>
+        <v>86600.13366943659</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="I5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="K5" t="n">
         <v>100930.0394572385</v>
-      </c>
-      <c r="K5" t="n">
-        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100444.125536041</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100534.9152999222</v>
+        <v>-100534.9152999224</v>
       </c>
       <c r="C6" t="n">
-        <v>-76720.78484081186</v>
+        <v>-76720.78484081168</v>
       </c>
       <c r="D6" t="n">
-        <v>-486797.3676374874</v>
+        <v>-482876.4205248947</v>
       </c>
       <c r="E6" t="n">
-        <v>-467136.5555825775</v>
+        <v>-490996.8614786426</v>
       </c>
       <c r="F6" t="n">
-        <v>72117.92334079712</v>
+        <v>92388.43379722744</v>
       </c>
       <c r="G6" t="n">
-        <v>249183.1632901356</v>
+        <v>252907.0839222035</v>
       </c>
       <c r="H6" t="n">
-        <v>252735.0476802971</v>
+        <v>252907.0839222033</v>
       </c>
       <c r="I6" t="n">
-        <v>252735.0476802972</v>
+        <v>249253.0640869214</v>
       </c>
       <c r="J6" t="n">
-        <v>243854.8732209617</v>
+        <v>243818.9762390972</v>
       </c>
       <c r="K6" t="n">
-        <v>251566.3006348058</v>
+        <v>251530.4036529417</v>
       </c>
       <c r="L6" t="n">
-        <v>197966.6366561114</v>
+        <v>198475.7299568318</v>
       </c>
       <c r="M6" t="n">
-        <v>74278.42867071186</v>
+        <v>68281.16467571352</v>
       </c>
       <c r="N6" t="n">
-        <v>204364.6197056002</v>
+        <v>209675.5281121319</v>
       </c>
       <c r="O6" t="n">
-        <v>248791.8307748747</v>
+        <v>251879.68344817</v>
       </c>
       <c r="P6" t="n">
-        <v>251910.4419005356</v>
+        <v>251879.6834481702</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M2" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="N2" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="O2" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="P2" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>35.02126071912533</v>
       </c>
       <c r="D3" t="n">
-        <v>589.0397541227474</v>
+        <v>583.9524834362777</v>
       </c>
       <c r="E3" t="n">
-        <v>1199.631615051651</v>
+        <v>1217.428560879496</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26793,19 +26793,19 @@
         <v>38.48106384277808</v>
       </c>
       <c r="D4" t="n">
-        <v>253.2252689012162</v>
+        <v>251.0922347234454</v>
       </c>
       <c r="E4" t="n">
-        <v>966.0228693804372</v>
+        <v>987.8320895109143</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1173.104351895088</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="H4" t="n">
-        <v>1173.104351895088</v>
+        <v>1160.145290326007</v>
       </c>
       <c r="I4" t="n">
         <v>1173.104351895088</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>12.007878032336</v>
       </c>
       <c r="D3" t="n">
-        <v>554.0184934036221</v>
+        <v>548.9312227171524</v>
       </c>
       <c r="E3" t="n">
-        <v>610.5918609289033</v>
+        <v>633.4760774432178</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4094336647352</v>
+        <v>140.6124878368903</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,40 +27015,40 @@
         <v>4.541151368822746</v>
       </c>
       <c r="D4" t="n">
-        <v>214.7442050584381</v>
+        <v>212.6111708806673</v>
       </c>
       <c r="E4" t="n">
-        <v>712.797600479221</v>
+        <v>736.7398547874689</v>
       </c>
       <c r="F4" t="n">
-        <v>194.1224209455695</v>
+        <v>172.3132008150926</v>
       </c>
       <c r="G4" t="n">
-        <v>12.95906156908109</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.95906156908086</v>
       </c>
       <c r="J4" t="n">
-        <v>33.93991247395525</v>
+        <v>33.93991247395547</v>
       </c>
       <c r="K4" t="n">
-        <v>4.541151368822966</v>
+        <v>4.541151368822511</v>
       </c>
       <c r="L4" t="n">
-        <v>201.7851434893568</v>
+        <v>199.6521093115862</v>
       </c>
       <c r="M4" t="n">
-        <v>712.797600479221</v>
+        <v>736.7398547874689</v>
       </c>
       <c r="N4" t="n">
-        <v>194.1224209455695</v>
+        <v>172.3132008150928</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908131</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27261,16 +27261,16 @@
         <v>4.541151368822746</v>
       </c>
       <c r="L4" t="n">
-        <v>214.7442050584381</v>
+        <v>212.6111708806673</v>
       </c>
       <c r="M4" t="n">
-        <v>712.797600479221</v>
+        <v>736.7398547874689</v>
       </c>
       <c r="N4" t="n">
-        <v>194.1224209455695</v>
+        <v>172.3132008150926</v>
       </c>
       <c r="O4" t="n">
-        <v>12.95906156908109</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>372.9361332677561</v>
       </c>
       <c r="G2" t="n">
-        <v>381.270308929876</v>
+        <v>389.4130465496237</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27427,19 +27427,19 @@
         <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>172.9719462259575</v>
       </c>
       <c r="T2" t="n">
-        <v>222.6908602868995</v>
+        <v>188.7509478129442</v>
       </c>
       <c r="U2" t="n">
         <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>293.8123459961796</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>323.4437938632054</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27461,10 +27461,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>117.5507906575789</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>123.7051679814456</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,10 +27473,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>77.81746130333066</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>53.75242741433431</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>63.14454955308224</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>166.0252945351195</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>196.0438505631574</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>171.8330727295221</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.3857047935936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>133.3069086246725</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>136.1691976298687</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>112.4940501726138</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27588,13 +27588,13 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>193.8283607270673</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
       </c>
       <c r="V4" t="n">
-        <v>218.1977308498727</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>184.6447408781395</v>
       </c>
     </row>
     <row r="5">
@@ -27631,7 +27631,7 @@
         <v>388.1438732363119</v>
       </c>
       <c r="H5" t="n">
-        <v>338.0329468943008</v>
+        <v>299.5518830515227</v>
       </c>
       <c r="I5" t="n">
         <v>166.5670582748677</v>
@@ -27664,7 +27664,7 @@
         <v>102.5442178425012</v>
       </c>
       <c r="S5" t="n">
-        <v>167.3307766836197</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T5" t="n">
         <v>222.4795457699687</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>128.0521198070892</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,7 +27704,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>111.1750913606649</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27713,7 +27713,7 @@
         <v>111.5079271034444</v>
       </c>
       <c r="I6" t="n">
-        <v>86.80307722268739</v>
+        <v>48.32201337990931</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
-        <v>136.3898515886142</v>
+        <v>131.802908778555</v>
       </c>
       <c r="T6" t="n">
-        <v>161.3800371293938</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U6" t="n">
         <v>225.9364262421938</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>167.2919213606994</v>
       </c>
       <c r="Y6" t="n">
-        <v>167.2016319345263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27777,10 +27777,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>110.1344091754343</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>127.4720922595622</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>161.6656840978772</v>
       </c>
       <c r="I7" t="n">
-        <v>115.0702253392529</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J7" t="n">
-        <v>88.89425643449839</v>
+        <v>50.4131925917203</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.3155846423218</v>
       </c>
       <c r="V7" t="n">
-        <v>213.6565794810499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.6227829650879</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>131.6416069400352</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>128.7051011710456</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>153.6507768404953</v>
+        <v>155.783811018266</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>314.1701839234158</v>
       </c>
       <c r="H8" t="n">
-        <v>225.4213616037638</v>
+        <v>64.34074479536987</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>155.0592921105786</v>
+        <v>155.5253270081381</v>
       </c>
       <c r="T8" t="n">
-        <v>212.7299338910768</v>
+        <v>212.8194596294889</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1562129869126</v>
+        <v>251.157849094068</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>133.0126697548374</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>121.4363850938315</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>137.6504643449428</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0765259939655</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.99897689141825</v>
+        <v>100.1046577409617</v>
       </c>
       <c r="I9" t="n">
-        <v>45.77434917345689</v>
+        <v>46.15109516297375</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,19 +27980,19 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>148.1493658329903</v>
+        <v>148.3526166948507</v>
       </c>
       <c r="T9" t="n">
-        <v>195.0578651661536</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8587472955829</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9287765231554</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7832236626519</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.92662664573898</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.5328893461677</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.505299534459</v>
+        <v>205.6651732706223</v>
       </c>
       <c r="T10" t="n">
-        <v>223.4070864047128</v>
+        <v>223.4462834083626</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2610910200198</v>
+        <v>286.2615914073004</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>33.29772943537483</v>
+        <v>35.43076361314559</v>
       </c>
       <c r="X10" t="n">
-        <v>78.45736283971885</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y32" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="J34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="K34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="L34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="N34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="O34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="P34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="R34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="S34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y35" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="J37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="K37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="L37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="N37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="O37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="P37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="R37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="S37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y37" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949084</v>
       </c>
       <c r="X38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y38" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="J40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="K40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="L40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="N40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="O40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="P40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="R40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="S40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y40" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X41" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y41" t="n">
-        <v>3.592251866948345</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="J43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="K43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="L43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="N43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="O43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="P43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="R43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="S43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y43" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y44" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="C46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="D46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="E46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="F46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="G46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="H46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="I46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="J46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="K46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="L46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="M46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="N46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="O46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="P46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="R46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="S46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="T46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="U46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="V46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="W46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="X46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.59225186694929</v>
+        <v>3.592251866949266</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.367999011548731</v>
+        <v>2.347547672105637</v>
       </c>
       <c r="H8" t="n">
-        <v>24.25126987702345</v>
+        <v>24.04182259695186</v>
       </c>
       <c r="I8" t="n">
-        <v>91.29228189273255</v>
+        <v>90.50383162885267</v>
       </c>
       <c r="J8" t="n">
-        <v>200.9809561064343</v>
+        <v>199.245174235376</v>
       </c>
       <c r="K8" t="n">
-        <v>301.2183542652922</v>
+        <v>298.6168671956077</v>
       </c>
       <c r="L8" t="n">
-        <v>373.6880040149767</v>
+        <v>370.4606292658107</v>
       </c>
       <c r="M8" t="n">
-        <v>415.7999064366065</v>
+        <v>412.2088301796193</v>
       </c>
       <c r="N8" t="n">
-        <v>422.5279836281694</v>
+        <v>418.8788000029895</v>
       </c>
       <c r="O8" t="n">
-        <v>398.9811934570816</v>
+        <v>395.535372838489</v>
       </c>
       <c r="P8" t="n">
-        <v>340.5212178594722</v>
+        <v>337.580289683381</v>
       </c>
       <c r="Q8" t="n">
-        <v>255.7172532583832</v>
+        <v>253.5087386760978</v>
       </c>
       <c r="R8" t="n">
-        <v>148.7488179091981</v>
+        <v>147.4641414579059</v>
       </c>
       <c r="S8" t="n">
-        <v>53.96077747566677</v>
+        <v>53.49474257810726</v>
       </c>
       <c r="T8" t="n">
-        <v>10.36591567305458</v>
+        <v>10.27638993464243</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1894399209238985</v>
+        <v>0.1878038137684509</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.266991169245155</v>
+        <v>1.256048737957277</v>
       </c>
       <c r="H9" t="n">
-        <v>12.23646734507821</v>
+        <v>12.13078649553475</v>
       </c>
       <c r="I9" t="n">
-        <v>43.62228367795819</v>
+        <v>43.24553768844132</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7028805996047</v>
+        <v>118.6690608084987</v>
       </c>
       <c r="K9" t="n">
-        <v>204.5912889390301</v>
+        <v>202.8243262516362</v>
       </c>
       <c r="L9" t="n">
-        <v>275.0982361117605</v>
+        <v>272.7223367218201</v>
       </c>
       <c r="M9" t="n">
-        <v>321.0266659968973</v>
+        <v>318.2541034727713</v>
       </c>
       <c r="N9" t="n">
-        <v>329.5232866011773</v>
+        <v>326.677342597055</v>
       </c>
       <c r="O9" t="n">
-        <v>301.4494296405347</v>
+        <v>298.8459468770543</v>
       </c>
       <c r="P9" t="n">
-        <v>241.9397435376998</v>
+        <v>239.8502190929119</v>
       </c>
       <c r="Q9" t="n">
-        <v>161.7303113583815</v>
+        <v>160.3335196031078</v>
       </c>
       <c r="R9" t="n">
-        <v>78.6645920694492</v>
+        <v>77.98520146720708</v>
       </c>
       <c r="S9" t="n">
-        <v>23.53380527084748</v>
+        <v>23.33055440898712</v>
       </c>
       <c r="T9" t="n">
-        <v>5.106863528667968</v>
+        <v>5.06275785167867</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08335468218718127</v>
+        <v>0.08263478539192612</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.062202835303315</v>
+        <v>1.053029068491648</v>
       </c>
       <c r="H10" t="n">
-        <v>9.443948844787661</v>
+        <v>9.362385718043933</v>
       </c>
       <c r="I10" t="n">
-        <v>31.94333617439424</v>
+        <v>31.66745598700339</v>
       </c>
       <c r="J10" t="n">
-        <v>75.09774045594435</v>
+        <v>74.44915514235953</v>
       </c>
       <c r="K10" t="n">
-        <v>123.4086566834215</v>
+        <v>122.342831775666</v>
       </c>
       <c r="L10" t="n">
-        <v>157.9205924413674</v>
+        <v>156.5567035101129</v>
       </c>
       <c r="M10" t="n">
-        <v>166.5051226285005</v>
+        <v>165.0670929818317</v>
       </c>
       <c r="N10" t="n">
-        <v>162.5460029696428</v>
+        <v>161.1421664538175</v>
       </c>
       <c r="O10" t="n">
-        <v>150.1375425754177</v>
+        <v>148.8408723355286</v>
       </c>
       <c r="P10" t="n">
-        <v>128.4686047352299</v>
+        <v>127.3590793382989</v>
       </c>
       <c r="Q10" t="n">
-        <v>88.94500287253484</v>
+        <v>88.17682499887793</v>
       </c>
       <c r="R10" t="n">
-        <v>47.76050203100176</v>
+        <v>47.34801611599719</v>
       </c>
       <c r="S10" t="n">
-        <v>18.51129850251322</v>
+        <v>18.3514247663499</v>
       </c>
       <c r="T10" t="n">
-        <v>4.538503023568707</v>
+        <v>4.499306019918859</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05793833647108997</v>
+        <v>0.05743794919045361</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.822639658499095</v>
+        <v>4.894185169364802</v>
       </c>
       <c r="H11" t="n">
-        <v>49.38985840260386</v>
+        <v>50.1225738657573</v>
       </c>
       <c r="I11" t="n">
-        <v>185.9248154342865</v>
+        <v>188.6830737419367</v>
       </c>
       <c r="J11" t="n">
-        <v>409.3155127155379</v>
+        <v>415.3878485183763</v>
       </c>
       <c r="K11" t="n">
-        <v>613.4578494598047</v>
+        <v>622.5587067375885</v>
       </c>
       <c r="L11" t="n">
-        <v>761.0487079085965</v>
+        <v>772.3391261145367</v>
       </c>
       <c r="M11" t="n">
-        <v>846.8133259354297</v>
+        <v>859.376091620228</v>
       </c>
       <c r="N11" t="n">
-        <v>860.5156508651404</v>
+        <v>873.2816952326858</v>
       </c>
       <c r="O11" t="n">
-        <v>812.56052776094</v>
+        <v>824.6151414548145</v>
       </c>
       <c r="P11" t="n">
-        <v>693.5016111917435</v>
+        <v>703.7899450861208</v>
       </c>
       <c r="Q11" t="n">
-        <v>520.7908284217444</v>
+        <v>528.5169387082436</v>
       </c>
       <c r="R11" t="n">
-        <v>302.940138448194</v>
+        <v>307.4343591451121</v>
       </c>
       <c r="S11" t="n">
-        <v>109.8959012180482</v>
+        <v>111.5262445469005</v>
       </c>
       <c r="T11" t="n">
-        <v>21.1111051050798</v>
+        <v>21.42429557889443</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3858111726799275</v>
+        <v>0.3915348135491841</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.580339700299777</v>
+        <v>2.618619923401179</v>
       </c>
       <c r="H12" t="n">
-        <v>24.92064921078996</v>
+        <v>25.29035557600613</v>
       </c>
       <c r="I12" t="n">
-        <v>88.84064319014584</v>
+        <v>90.15862455569851</v>
       </c>
       <c r="J12" t="n">
-        <v>243.7855152813926</v>
+        <v>247.4021568858983</v>
       </c>
       <c r="K12" t="n">
-        <v>416.6682752014776</v>
+        <v>422.8496917537773</v>
       </c>
       <c r="L12" t="n">
-        <v>560.2619160672828</v>
+        <v>568.5735934560324</v>
       </c>
       <c r="M12" t="n">
-        <v>653.7992302031495</v>
+        <v>663.498565679325</v>
       </c>
       <c r="N12" t="n">
-        <v>671.1033503863003</v>
+        <v>238.2462263663184</v>
       </c>
       <c r="O12" t="n">
-        <v>232.831007326952</v>
+        <v>623.0362937927358</v>
       </c>
       <c r="P12" t="n">
-        <v>492.7317099633847</v>
+        <v>500.0415536185989</v>
       </c>
       <c r="Q12" t="n">
-        <v>329.3780992873891</v>
+        <v>334.26453618714</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>47.9286782051296</v>
+        <v>48.63971655966661</v>
       </c>
       <c r="T12" t="n">
-        <v>10.40057975691006</v>
+        <v>10.55487591932317</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1697591908091959</v>
+        <v>0.1722776265395513</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.163270125502976</v>
+        <v>2.195362978635156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.23343802492648</v>
+        <v>19.51877266459258</v>
       </c>
       <c r="I13" t="n">
-        <v>65.05543250148953</v>
+        <v>66.02055212113724</v>
       </c>
       <c r="J13" t="n">
-        <v>152.9431978730604</v>
+        <v>155.2121625895055</v>
       </c>
       <c r="K13" t="n">
-        <v>251.3326563993458</v>
+        <v>255.0612624268844</v>
       </c>
       <c r="L13" t="n">
-        <v>321.6192693861425</v>
+        <v>326.3906013872668</v>
       </c>
       <c r="M13" t="n">
-        <v>339.1024252186165</v>
+        <v>344.1331258236908</v>
       </c>
       <c r="N13" t="n">
-        <v>331.0393274781057</v>
+        <v>335.95040926696</v>
       </c>
       <c r="O13" t="n">
-        <v>305.7683991938208</v>
+        <v>310.3045781074492</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6376886335599</v>
+        <v>265.5191733432918</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.1443738727992</v>
+        <v>183.8317126928038</v>
       </c>
       <c r="R13" t="n">
-        <v>97.2684912794338</v>
+        <v>98.71150265754071</v>
       </c>
       <c r="S13" t="n">
-        <v>37.69989845990186</v>
+        <v>38.25918936403265</v>
       </c>
       <c r="T13" t="n">
-        <v>9.243063263512715</v>
+        <v>9.380187272350208</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1179965523001625</v>
+        <v>0.1197470715619177</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>234.5999298820441</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32093,10 +32093,10 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8760176396499</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>694.9967242426205</v>
@@ -32333,7 +32333,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286953</v>
+        <v>221.0369088927402</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32549,16 +32549,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>420.7661933823239</v>
       </c>
       <c r="M21" t="n">
-        <v>640.3146339032908</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
         <v>759.7214730927639</v>
@@ -32570,7 +32570,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32786,25 +32786,25 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M27" t="n">
         <v>740.1323715504302</v>
@@ -33038,10 +33038,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,7 +33257,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>275.9770021735818</v>
@@ -33272,16 +33272,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O30" t="n">
-        <v>392.9727799466968</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745725</v>
@@ -33512,10 +33512,10 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P33" t="n">
-        <v>344.3187317059969</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,25 +33734,25 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>420.7661933823239</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33968,34 +33968,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5820714705305</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>152.1929830599427</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34375,7 +34375,7 @@
         <v>861.5439710364265</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293336</v>
       </c>
       <c r="N44" t="n">
         <v>974.1453645229609</v>
@@ -34442,28 +34442,28 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I45" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>269.8643492168404</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M45" t="n">
         <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34702,19 +34702,19 @@
         <v>33.93991247395533</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="N2" t="n">
-        <v>32.56860287904802</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="P2" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988642</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>33.93991247395533</v>
       </c>
       <c r="M3" t="n">
-        <v>28.63848405005938</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>33.93991247395533</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>33.93991247395533</v>
+        <v>32.56860287904804</v>
       </c>
       <c r="P3" t="n">
         <v>33.93991247395533</v>
@@ -34939,22 +34939,22 @@
         <v>38.48106384277808</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>36.92627338448402</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="N5" t="n">
-        <v>31.71334579105919</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
-        <v>5.212927593424824</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>6.370323552522133</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>38.48106384277808</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>36.92627338448402</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>38.48106384277808</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>30.55594983196189</v>
+        <v>38.48106384277808</v>
       </c>
       <c r="Q6" t="n">
-        <v>38.48106384277808</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>93.46829857911121</v>
+        <v>106.6867301451171</v>
       </c>
       <c r="K8" t="n">
-        <v>81.12850322031164</v>
+        <v>78.52701615062716</v>
       </c>
       <c r="L8" t="n">
-        <v>137.9215890449895</v>
+        <v>134.6942142958234</v>
       </c>
       <c r="M8" t="n">
-        <v>185.4536732093337</v>
+        <v>181.8625969523465</v>
       </c>
       <c r="N8" t="n">
-        <v>193.1149200315784</v>
+        <v>189.4657364063985</v>
       </c>
       <c r="O8" t="n">
-        <v>168.8829820353949</v>
+        <v>165.4371614168022</v>
       </c>
       <c r="P8" t="n">
-        <v>109.2882221042027</v>
+        <v>106.3472939281115</v>
       </c>
       <c r="Q8" t="n">
-        <v>33.41156338393375</v>
+        <v>31.20304880164832</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>66.74984996467111</v>
+        <v>64.9828872772772</v>
       </c>
       <c r="L9" t="n">
-        <v>136.5438563318863</v>
+        <v>134.1679569419459</v>
       </c>
       <c r="M9" t="n">
-        <v>178.892632074879</v>
+        <v>176.120069550753</v>
       </c>
       <c r="N9" t="n">
-        <v>198.181574517844</v>
+        <v>195.3356305137217</v>
       </c>
       <c r="O9" t="n">
-        <v>158.8531851960902</v>
+        <v>156.2497024326099</v>
       </c>
       <c r="P9" t="n">
-        <v>107.9653361233696</v>
+        <v>105.8758116785817</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.4833174001158</v>
+        <v>161.4917397019853</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,25 +35331,25 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>101.1391648575386</v>
+        <v>100.0733399497832</v>
       </c>
       <c r="L10" t="n">
-        <v>185.5106177016835</v>
+        <v>184.146728770429</v>
       </c>
       <c r="M10" t="n">
-        <v>206.0889995903411</v>
+        <v>204.6509699436723</v>
       </c>
       <c r="N10" t="n">
-        <v>206.6781753488714</v>
+        <v>205.2743388330461</v>
       </c>
       <c r="O10" t="n">
-        <v>174.7226704894574</v>
+        <v>173.4260002495683</v>
       </c>
       <c r="P10" t="n">
-        <v>125.7471640001234</v>
+        <v>124.6376386031924</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.782959620840458</v>
+        <v>2.014781747183548</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>228.2696081888516</v>
+        <v>234.34194399169</v>
       </c>
       <c r="K11" t="n">
-        <v>393.3679984148242</v>
+        <v>402.468855692608</v>
       </c>
       <c r="L11" t="n">
-        <v>525.2822929386093</v>
+        <v>536.5727111445494</v>
       </c>
       <c r="M11" t="n">
-        <v>616.467092708157</v>
+        <v>629.0298583929552</v>
       </c>
       <c r="N11" t="n">
-        <v>631.1025872685495</v>
+        <v>643.868631636095</v>
       </c>
       <c r="O11" t="n">
-        <v>582.4623163392532</v>
+        <v>594.5169300331278</v>
       </c>
       <c r="P11" t="n">
-        <v>462.2686154364739</v>
+        <v>472.5569493308513</v>
       </c>
       <c r="Q11" t="n">
-        <v>298.4851385472949</v>
+        <v>306.2112488337941</v>
       </c>
       <c r="R11" t="n">
-        <v>87.35460063406191</v>
+        <v>91.84882133097994</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>116.9478886147259</v>
+        <v>120.5645302192316</v>
       </c>
       <c r="K12" t="n">
-        <v>278.8268362271186</v>
+        <v>285.0082527794183</v>
       </c>
       <c r="L12" t="n">
-        <v>421.7075362874086</v>
+        <v>430.0192136761582</v>
       </c>
       <c r="M12" t="n">
-        <v>511.6651962811312</v>
+        <v>521.3645317573066</v>
       </c>
       <c r="N12" t="n">
-        <v>539.7616383029671</v>
+        <v>106.9045142829851</v>
       </c>
       <c r="O12" t="n">
-        <v>90.23476288250757</v>
+        <v>480.4400493482914</v>
       </c>
       <c r="P12" t="n">
-        <v>358.7573025490544</v>
+        <v>366.0671462042686</v>
       </c>
       <c r="Q12" t="n">
-        <v>189.3963252013676</v>
+        <v>194.2827621011185</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.58401775638765</v>
+        <v>61.85298247283271</v>
       </c>
       <c r="K13" t="n">
-        <v>229.0631645734629</v>
+        <v>232.7917706010015</v>
       </c>
       <c r="L13" t="n">
-        <v>349.2092946464587</v>
+        <v>353.9806266475829</v>
       </c>
       <c r="M13" t="n">
-        <v>378.6863021804571</v>
+        <v>383.7170027855313</v>
       </c>
       <c r="N13" t="n">
-        <v>375.1714998573343</v>
+        <v>380.0825816461886</v>
       </c>
       <c r="O13" t="n">
-        <v>330.3535271078605</v>
+        <v>334.8897060214889</v>
       </c>
       <c r="P13" t="n">
-        <v>258.9162478984534</v>
+        <v>262.7977326081853</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.98233062110485</v>
+        <v>97.66966944110943</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>92.46589596002582</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35741,10 +35741,10 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845857</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>49.32163785977568</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>552.4004797981761</v>
@@ -35981,7 +35981,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426738</v>
+        <v>81.0551348067187</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
         <v>474.3741250380626</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845857</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>282.2118136024497</v>
       </c>
       <c r="M21" t="n">
-        <v>498.1805999812725</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
         <v>628.3797610094306</v>
@@ -36218,7 +36218,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K23" t="n">
         <v>474.3741250380626</v>
@@ -36364,7 +36364,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
         <v>744.73230092637</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M27" t="n">
         <v>597.9983376284119</v>
@@ -36686,10 +36686,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>418.567381269501</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>149.1393755069151</v>
@@ -36920,16 +36920,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O30" t="n">
-        <v>250.3765355022524</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607219</v>
       </c>
       <c r="K32" t="n">
         <v>474.3741250380626</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946983</v>
@@ -37160,10 +37160,10 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P33" t="n">
-        <v>210.3443242916667</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.3721739776098</v>
+        <v>83.37217397760979</v>
       </c>
       <c r="K34" t="n">
         <v>265.843491231155</v>
@@ -37233,19 +37233,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M34" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N34" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O34" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P34" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q34" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>474.3741250380626</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066441</v>
       </c>
       <c r="M35" t="n">
         <v>728.2874363020583</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>282.2118136024497</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O36" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>83.3721739776098</v>
+        <v>83.37217397760979</v>
       </c>
       <c r="K37" t="n">
         <v>265.843491231155</v>
@@ -37470,19 +37470,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M37" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N37" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O37" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P37" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q37" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>461.4480375485122</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O39" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>83.3721739776098</v>
+        <v>83.37217397760979</v>
       </c>
       <c r="K40" t="n">
         <v>265.843491231155</v>
@@ -37707,19 +37707,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M40" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N40" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O40" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P40" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q40" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>13.63860328006849</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O42" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>83.3721739776098</v>
+        <v>83.37217397760979</v>
       </c>
       <c r="K43" t="n">
         <v>265.843491231155</v>
@@ -37944,19 +37944,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M43" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N43" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O43" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P43" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q43" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020609</v>
       </c>
       <c r="N44" t="n">
         <v>744.73230092637</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>132.0229102424815</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M45" t="n">
         <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O45" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>83.3721739776098</v>
+        <v>83.37217397760979</v>
       </c>
       <c r="K46" t="n">
         <v>265.843491231155</v>
@@ -38181,19 +38181,19 @@
         <v>395.2708559913273</v>
       </c>
       <c r="M46" t="n">
-        <v>427.0564862552921</v>
+        <v>427.056486255292</v>
       </c>
       <c r="N46" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878653</v>
       </c>
       <c r="O46" t="n">
-        <v>374.3220064275853</v>
+        <v>374.3220064275852</v>
       </c>
       <c r="P46" t="n">
         <v>297.0573375600852</v>
       </c>
       <c r="Q46" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
